--- a/biology/Biologie cellulaire et moléculaire/BCL11B/BCL11B.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BCL11B/BCL11B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BCL11B (pour « B-cell lymphoma/leukemia 11B ») est un facteur de transcription dont le gène est BCL11B situé sur le chromosome 14 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il augmente l'expression de l'interleukine 2, active le NF-κB[5]. Il a un rôle de répresseur de la transcription en association avec le complexe NuRD[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il augmente l'expression de l'interleukine 2, active le NF-κB. Il a un rôle de répresseur de la transcription en association avec le complexe NuRD.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène provoque une alymphocytose congénitale[7]. 
-Dans la leucémie aiguë lymphoblastique, une mutation du gène est fréquemment retrouvée[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène provoque une alymphocytose congénitale. 
+Dans la leucémie aiguë lymphoblastique, une mutation du gène est fréquemment retrouvée.
 </t>
         </is>
       </c>
